--- a/data/Sample_Data-Jing 20210312.xlsx
+++ b/data/Sample_Data-Jing 20210312.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xluhon/Documents/GitHub/Yli_GEMs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A36F50-5416-814D-93FC-77F6667A0F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F13CFD-0E3A-1040-91BB-65E92062E213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13180" xr2:uid="{B9F56D9D-CEEC-E54C-A0C7-3282913CF77D}"/>
+    <workbookView xWindow="1240" yWindow="2020" windowWidth="23040" windowHeight="13180" activeTab="3" xr2:uid="{B9F56D9D-CEEC-E54C-A0C7-3282913CF77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="4" r:id="rId1"/>
     <sheet name="Samples" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="73">
   <si>
     <t>Sample number</t>
   </si>
@@ -426,6 +427,9 @@
     <t>C16:0 
 μg/g CDW</t>
   </si>
+  <si>
+    <t>strainID</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +496,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +569,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -578,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,9 +694,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -694,6 +701,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A6DD82-743E-4531-A6C7-AFFA05AD9981}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,34 +1103,34 @@
       <c r="D1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
     </row>
     <row r="2" spans="1:31" s="64" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="67"/>
@@ -1205,95 +1221,95 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="76">
         <v>0.28511388888888889</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="76">
         <v>0.10274943310657597</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="76">
         <v>2.2933333333333334</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="76">
         <v>2.4186666666666667</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="76">
         <v>0.22666666666666668</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="76">
         <v>0.03</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="76">
         <v>2.4081632653061233</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="76">
         <v>2.0611190344509009</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="76">
         <v>1.0435269370550675</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="76">
         <v>4.4673666568076511</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="76">
         <v>105.48094963478324</v>
       </c>
-      <c r="O3" s="77">
+      <c r="O3" s="76">
         <v>6.0286637702861946E-2</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="76">
         <v>40.77687256813757</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="76">
         <v>18.579755229238994</v>
       </c>
-      <c r="R3" s="77">
+      <c r="R3" s="76">
         <v>13.460994977967525</v>
       </c>
-      <c r="S3" s="77">
+      <c r="S3" s="76">
         <v>143.98991887665829</v>
       </c>
-      <c r="T3" s="77">
+      <c r="T3" s="76">
         <v>72.019286205336186</v>
       </c>
-      <c r="U3" s="77">
+      <c r="U3" s="76">
         <v>3.4333333333333334E-3</v>
       </c>
-      <c r="V3" s="77">
+      <c r="V3" s="76">
         <v>20.681266666666669</v>
       </c>
-      <c r="W3" s="77">
-        <v>0</v>
-      </c>
-      <c r="X3" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="77">
+      <c r="W3" s="76">
+        <v>0</v>
+      </c>
+      <c r="X3" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="76">
         <v>1.3166666666666667E-2</v>
       </c>
-      <c r="Z3" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="77">
+      <c r="Z3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="76">
         <v>25.0565</v>
       </c>
-      <c r="AC3" s="77">
+      <c r="AC3" s="76">
         <v>4.375233333333334</v>
       </c>
-      <c r="AD3" s="77">
+      <c r="AD3" s="76">
         <v>167.08888888888887</v>
       </c>
     </row>
@@ -1385,95 +1401,95 @@
         <v>24.053761159659171</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
         <v>0.28438472222222222</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <v>0.10428743961352656</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="76">
         <v>3.0466666666666669</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="76">
         <v>1.9613333333333343</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="76">
         <v>0.20666666666666667</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="76">
         <v>0.03</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="76">
         <v>2.1632653061224492</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="76">
         <v>2.2999059683422316</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="76">
         <v>1.3387433065091772</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="76">
         <v>4.5342365049359383</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="76">
         <v>85.169728942079473</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="76">
         <v>7.3966534094040193E-2</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="76">
         <v>37.628733816742233</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="76">
         <v>16.692397380749796</v>
       </c>
-      <c r="R5" s="77">
+      <c r="R5" s="76">
         <v>15.685381570146426</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="76">
         <v>154.57209211767258</v>
       </c>
-      <c r="T5" s="77">
+      <c r="T5" s="76">
         <v>65.470656307741351</v>
       </c>
-      <c r="U5" s="77">
+      <c r="U5" s="76">
         <v>3.2999999999999995E-3</v>
       </c>
-      <c r="V5" s="77">
+      <c r="V5" s="76">
         <v>20.762133333333335</v>
       </c>
-      <c r="W5" s="77">
-        <v>0</v>
-      </c>
-      <c r="X5" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="77">
+      <c r="W5" s="76">
+        <v>0</v>
+      </c>
+      <c r="X5" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="76">
         <v>0.10856666666666666</v>
       </c>
-      <c r="Z5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="77">
+      <c r="Z5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="76">
         <v>25.305599999999998</v>
       </c>
-      <c r="AC5" s="77">
+      <c r="AC5" s="76">
         <v>4.5434666666666663</v>
       </c>
-      <c r="AD5" s="77">
+      <c r="AD5" s="76">
         <v>201.42222222222219</v>
       </c>
     </row>
@@ -1565,95 +1581,95 @@
         <v>17.280732151841917</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="76">
         <v>0.19837222222222226</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="76">
         <v>0.10419682057220052</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="76">
         <v>1.6133333333333333</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="76">
         <v>1.5453333333333328</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="76">
         <v>0.22</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="76">
         <v>0.03</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="76">
         <v>2.3265306122448983</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="76">
         <v>3.1347595349761295</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="76">
         <v>1.5012495723958532</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="76">
         <v>4.5302965466174143</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="76">
         <v>85.222596099932971</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="76">
         <v>1.7679907819335386E-2</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="76">
         <v>11.772205385678005</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="76">
         <v>3.7081288185505694</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="76">
         <v>1.8534297006513094</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="76">
         <v>9.6410651668880902</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="76">
         <v>27.779632410850876</v>
       </c>
-      <c r="U7" s="77">
+      <c r="U7" s="76">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="V7" s="77">
+      <c r="V7" s="76">
         <v>21.496933333333335</v>
       </c>
-      <c r="W7" s="77">
+      <c r="W7" s="76">
         <v>1.77E-2</v>
       </c>
-      <c r="X7" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="77">
+      <c r="X7" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="76">
         <v>1.0333333333333333E-2</v>
       </c>
-      <c r="Z7" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="77">
+      <c r="Z7" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="76">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AB7" s="77">
+      <c r="AB7" s="76">
         <v>25.514500000000002</v>
       </c>
-      <c r="AC7" s="77">
+      <c r="AC7" s="76">
         <v>4.0175666666666681</v>
       </c>
-      <c r="AD7" s="77">
+      <c r="AD7" s="76">
         <v>238.58333333333334</v>
       </c>
     </row>
@@ -1745,95 +1761,95 @@
         <v>12.967298613563784</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="76">
         <v>0.2364111111111111</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>0.10419682057220052</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="76">
         <v>1.86</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <v>1.5880000000000003</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="76">
         <v>0.21666666666666667</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="76">
         <v>0.03</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="76">
         <v>2.285714285714286</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="76">
         <v>3.0027316961462969</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="76">
         <v>1.2373847401634954</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="76">
         <v>4.5302965466174143</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="76">
         <v>101.49877627537478</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="76">
         <v>2.0746605990009354E-2</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="76">
         <v>10.741284384960542</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="76">
         <v>6.1589230513479718</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="76">
         <v>1.5409818517736287</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="76">
         <v>13.348247267565776</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="76">
         <v>34.20456112932218</v>
       </c>
-      <c r="U9" s="77">
+      <c r="U9" s="76">
         <v>3.5300000000000005E-2</v>
       </c>
-      <c r="V9" s="77">
+      <c r="V9" s="76">
         <v>21.684333333333331</v>
       </c>
-      <c r="W9" s="77">
+      <c r="W9" s="76">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="X9" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="77">
+      <c r="X9" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="76">
         <v>1.2166666666666666E-2</v>
       </c>
-      <c r="Z9" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="77">
+      <c r="Z9" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="76">
         <v>25.0853</v>
       </c>
-      <c r="AC9" s="77">
+      <c r="AC9" s="76">
         <v>3.4009666666666667</v>
       </c>
-      <c r="AD9" s="77">
+      <c r="AD9" s="76">
         <v>220.30555555555554</v>
       </c>
     </row>
@@ -1925,95 +1941,95 @@
         <v>27.910135222677539</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="78" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="77" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="76">
         <v>0.16973888888888888</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>0.10419682057220052</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="76">
         <v>1.3266666666666669</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="76">
         <v>1.4826666666666666</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="76">
         <v>0.20666666666666667</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="76">
         <v>3.6666666666666674E-2</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="76">
         <v>2.0816326530612246</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="76">
         <v>2.9325555218636379</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="76">
         <v>1.1464436653584047</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="76">
         <v>4.5302965466174134</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="76">
         <v>108.89286960541926</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="76">
         <v>1.7596708664456145E-2</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="76">
         <v>10.411336911180776</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="76">
         <v>1.8362213232096887</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="76">
         <v>1.8021466167123201</v>
       </c>
-      <c r="S11" s="77">
+      <c r="S11" s="76">
         <v>8.7039799081834275</v>
       </c>
-      <c r="T11" s="77">
+      <c r="T11" s="76">
         <v>29.316752910283125</v>
       </c>
-      <c r="U11" s="77">
+      <c r="U11" s="76">
         <v>8.4999999999999989E-3</v>
       </c>
-      <c r="V11" s="77">
+      <c r="V11" s="76">
         <v>22.428100000000001</v>
       </c>
-      <c r="W11" s="77">
+      <c r="W11" s="76">
         <v>1.0833333333333334E-2</v>
       </c>
-      <c r="X11" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="77">
+      <c r="X11" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="76">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="Z11" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="77">
+      <c r="Z11" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="76">
         <v>1.9233333333333335E-2</v>
       </c>
-      <c r="AB11" s="77">
+      <c r="AB11" s="76">
         <v>25.364899999999995</v>
       </c>
-      <c r="AC11" s="77">
+      <c r="AC11" s="76">
         <v>2.9367999999999994</v>
       </c>
-      <c r="AD11" s="77">
+      <c r="AD11" s="76">
         <v>251.7777777777778</v>
       </c>
     </row>
@@ -7727,14 +7743,14 @@
         <f t="shared" ref="V49:V56" si="18">100*((S49+U49)/(6*T49))</f>
         <v>90.136675102840996</v>
       </c>
-      <c r="W49" s="75" t="s">
+      <c r="W49" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="75"/>
-      <c r="Z49" s="75"/>
-      <c r="AA49" s="75"/>
-      <c r="AB49" s="75"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
       <c r="AC49">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -7858,12 +7874,12 @@
         <f t="shared" si="18"/>
         <v>82.11697356806188</v>
       </c>
-      <c r="W50" s="75"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="75"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="79"/>
+      <c r="AB50" s="79"/>
       <c r="AC50">
         <v>1.2699999999999999E-2</v>
       </c>
@@ -7987,12 +8003,12 @@
         <f t="shared" si="18"/>
         <v>65.985058756677134</v>
       </c>
-      <c r="W51" s="75"/>
-      <c r="X51" s="75"/>
-      <c r="Y51" s="75"/>
-      <c r="Z51" s="75"/>
-      <c r="AA51" s="75"/>
-      <c r="AB51" s="75"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
       <c r="AC51">
         <v>1.5100000000000001E-2</v>
       </c>
@@ -8114,12 +8130,12 @@
         <f t="shared" si="18"/>
         <v>83.414139628896095</v>
       </c>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+      <c r="AA52" s="79"/>
+      <c r="AB52" s="79"/>
       <c r="AC52">
         <v>1.72E-2</v>
       </c>
@@ -8242,12 +8258,12 @@
         <f t="shared" si="18"/>
         <v>82.807755793856231</v>
       </c>
-      <c r="W53" s="75"/>
-      <c r="X53" s="75"/>
-      <c r="Y53" s="75"/>
-      <c r="Z53" s="75"/>
-      <c r="AA53" s="75"/>
-      <c r="AB53" s="75"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
       <c r="AC53">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -14337,4 +14353,635 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CD49F6-12FF-6648-8C31-985E62DFF6B4}">
+  <dimension ref="A1:AF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="63"/>
+    </row>
+    <row r="2" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="76">
+        <v>0.28511388888888889</v>
+      </c>
+      <c r="E3" s="76">
+        <v>0.10274943310657597</v>
+      </c>
+      <c r="F3" s="76">
+        <v>2.2933333333333334</v>
+      </c>
+      <c r="G3" s="76">
+        <v>2.4186666666666667</v>
+      </c>
+      <c r="H3" s="76">
+        <v>0.22666666666666668</v>
+      </c>
+      <c r="I3" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="76">
+        <v>2.4081632653061233</v>
+      </c>
+      <c r="K3" s="76">
+        <v>2.0611190344509009</v>
+      </c>
+      <c r="L3" s="76">
+        <v>1.0435269370550675</v>
+      </c>
+      <c r="M3" s="76">
+        <v>1</v>
+      </c>
+      <c r="N3" s="76">
+        <v>4.4673666568076511</v>
+      </c>
+      <c r="O3" s="76">
+        <v>105.48094963478324</v>
+      </c>
+      <c r="P3" s="76">
+        <v>6.0286637702861946E-2</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>40.77687256813757</v>
+      </c>
+      <c r="R3" s="76">
+        <v>18.579755229238994</v>
+      </c>
+      <c r="S3" s="76">
+        <v>13.460994977967525</v>
+      </c>
+      <c r="T3" s="76">
+        <v>143.98991887665829</v>
+      </c>
+      <c r="U3" s="76">
+        <v>72.019286205336186</v>
+      </c>
+      <c r="V3" s="76">
+        <v>3.4333333333333334E-3</v>
+      </c>
+      <c r="W3" s="76">
+        <v>20.681266666666669</v>
+      </c>
+      <c r="X3" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>1.3166666666666667E-2</v>
+      </c>
+      <c r="AA3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="76">
+        <v>25.0565</v>
+      </c>
+      <c r="AD3" s="76">
+        <v>4.375233333333334</v>
+      </c>
+      <c r="AE3" s="76">
+        <v>167.08888888888887</v>
+      </c>
+      <c r="AF3" s="77"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="76">
+        <v>0.28438472222222222</v>
+      </c>
+      <c r="E4" s="76">
+        <v>0.10428743961352656</v>
+      </c>
+      <c r="F4" s="76">
+        <v>3.0466666666666669</v>
+      </c>
+      <c r="G4" s="76">
+        <v>1.9613333333333343</v>
+      </c>
+      <c r="H4" s="76">
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="I4" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="76">
+        <v>2.1632653061224492</v>
+      </c>
+      <c r="K4" s="80">
+        <v>2.2999059683422316</v>
+      </c>
+      <c r="L4" s="80">
+        <v>1.3387433065091772</v>
+      </c>
+      <c r="M4" s="80">
+        <v>2</v>
+      </c>
+      <c r="N4" s="76">
+        <v>4.5342365049359383</v>
+      </c>
+      <c r="O4" s="76">
+        <v>85.169728942079473</v>
+      </c>
+      <c r="P4" s="76">
+        <v>7.3966534094040193E-2</v>
+      </c>
+      <c r="Q4" s="76">
+        <v>37.628733816742233</v>
+      </c>
+      <c r="R4" s="76">
+        <v>16.692397380749796</v>
+      </c>
+      <c r="S4" s="76">
+        <v>15.685381570146426</v>
+      </c>
+      <c r="T4" s="76">
+        <v>154.57209211767258</v>
+      </c>
+      <c r="U4" s="76">
+        <v>65.470656307741351</v>
+      </c>
+      <c r="V4" s="76">
+        <v>3.2999999999999995E-3</v>
+      </c>
+      <c r="W4" s="76">
+        <v>20.762133333333335</v>
+      </c>
+      <c r="X4" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>0.10856666666666666</v>
+      </c>
+      <c r="AA4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="76">
+        <v>25.305599999999998</v>
+      </c>
+      <c r="AD4" s="76">
+        <v>4.5434666666666663</v>
+      </c>
+      <c r="AE4" s="76">
+        <v>201.42222222222219</v>
+      </c>
+      <c r="AF4" s="77"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="76">
+        <v>0.19837222222222226</v>
+      </c>
+      <c r="E5" s="76">
+        <v>0.10419682057220052</v>
+      </c>
+      <c r="F5" s="76">
+        <v>1.6133333333333333</v>
+      </c>
+      <c r="G5" s="76">
+        <v>1.5453333333333328</v>
+      </c>
+      <c r="H5" s="76">
+        <v>0.22</v>
+      </c>
+      <c r="I5" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="76">
+        <v>2.3265306122448983</v>
+      </c>
+      <c r="K5" s="80">
+        <v>3.1347595349761295</v>
+      </c>
+      <c r="L5" s="80">
+        <v>1.5012495723958532</v>
+      </c>
+      <c r="M5" s="80">
+        <v>3</v>
+      </c>
+      <c r="N5" s="76">
+        <v>4.5302965466174143</v>
+      </c>
+      <c r="O5" s="76">
+        <v>85.222596099932971</v>
+      </c>
+      <c r="P5" s="76">
+        <v>1.7679907819335386E-2</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>11.772205385678005</v>
+      </c>
+      <c r="R5" s="76">
+        <v>3.7081288185505694</v>
+      </c>
+      <c r="S5" s="76">
+        <v>1.8534297006513094</v>
+      </c>
+      <c r="T5" s="76">
+        <v>9.6410651668880902</v>
+      </c>
+      <c r="U5" s="76">
+        <v>27.779632410850876</v>
+      </c>
+      <c r="V5" s="76">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="W5" s="76">
+        <v>21.496933333333335</v>
+      </c>
+      <c r="X5" s="76">
+        <v>1.77E-2</v>
+      </c>
+      <c r="Y5" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>1.0333333333333333E-2</v>
+      </c>
+      <c r="AA5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="76">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC5" s="76">
+        <v>25.514500000000002</v>
+      </c>
+      <c r="AD5" s="76">
+        <v>4.0175666666666681</v>
+      </c>
+      <c r="AE5" s="76">
+        <v>238.58333333333334</v>
+      </c>
+      <c r="AF5" s="77"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="76">
+        <v>0.2364111111111111</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0.10419682057220052</v>
+      </c>
+      <c r="F6" s="76">
+        <v>1.86</v>
+      </c>
+      <c r="G6" s="76">
+        <v>1.5880000000000003</v>
+      </c>
+      <c r="H6" s="76">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I6" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="76">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="K6" s="76">
+        <v>3.0027316961462969</v>
+      </c>
+      <c r="L6" s="76">
+        <v>1.2373847401634954</v>
+      </c>
+      <c r="M6" s="76">
+        <v>4</v>
+      </c>
+      <c r="N6" s="76">
+        <v>4.5302965466174143</v>
+      </c>
+      <c r="O6" s="76">
+        <v>101.49877627537478</v>
+      </c>
+      <c r="P6" s="76">
+        <v>2.0746605990009354E-2</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>10.741284384960542</v>
+      </c>
+      <c r="R6" s="76">
+        <v>6.1589230513479718</v>
+      </c>
+      <c r="S6" s="76">
+        <v>1.5409818517736287</v>
+      </c>
+      <c r="T6" s="76">
+        <v>13.348247267565776</v>
+      </c>
+      <c r="U6" s="76">
+        <v>34.20456112932218</v>
+      </c>
+      <c r="V6" s="76">
+        <v>3.5300000000000005E-2</v>
+      </c>
+      <c r="W6" s="76">
+        <v>21.684333333333331</v>
+      </c>
+      <c r="X6" s="76">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Y6" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>1.2166666666666666E-2</v>
+      </c>
+      <c r="AA6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="76">
+        <v>25.0853</v>
+      </c>
+      <c r="AD6" s="76">
+        <v>3.4009666666666667</v>
+      </c>
+      <c r="AE6" s="76">
+        <v>220.30555555555554</v>
+      </c>
+      <c r="AF6" s="77"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="76">
+        <v>0.16973888888888888</v>
+      </c>
+      <c r="E7" s="76">
+        <v>0.10419682057220052</v>
+      </c>
+      <c r="F7" s="76">
+        <v>1.3266666666666669</v>
+      </c>
+      <c r="G7" s="76">
+        <v>1.4826666666666666</v>
+      </c>
+      <c r="H7" s="76">
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="I7" s="76">
+        <v>3.6666666666666674E-2</v>
+      </c>
+      <c r="J7" s="76">
+        <v>2.0816326530612246</v>
+      </c>
+      <c r="K7" s="76">
+        <v>2.9325555218636379</v>
+      </c>
+      <c r="L7" s="76">
+        <v>1.1464436653584047</v>
+      </c>
+      <c r="M7" s="76">
+        <v>5</v>
+      </c>
+      <c r="N7" s="76">
+        <v>4.5302965466174134</v>
+      </c>
+      <c r="O7" s="76">
+        <v>108.89286960541926</v>
+      </c>
+      <c r="P7" s="76">
+        <v>1.7596708664456145E-2</v>
+      </c>
+      <c r="Q7" s="76">
+        <v>10.411336911180776</v>
+      </c>
+      <c r="R7" s="76">
+        <v>1.8362213232096887</v>
+      </c>
+      <c r="S7" s="76">
+        <v>1.8021466167123201</v>
+      </c>
+      <c r="T7" s="76">
+        <v>8.7039799081834275</v>
+      </c>
+      <c r="U7" s="76">
+        <v>29.316752910283125</v>
+      </c>
+      <c r="V7" s="76">
+        <v>8.4999999999999989E-3</v>
+      </c>
+      <c r="W7" s="76">
+        <v>22.428100000000001</v>
+      </c>
+      <c r="X7" s="76">
+        <v>1.0833333333333334E-2</v>
+      </c>
+      <c r="Y7" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="76">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AA7" s="76">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="76">
+        <v>1.9233333333333335E-2</v>
+      </c>
+      <c r="AC7" s="76">
+        <v>25.364899999999995</v>
+      </c>
+      <c r="AD7" s="76">
+        <v>2.9367999999999994</v>
+      </c>
+      <c r="AE7" s="76">
+        <v>251.7777777777778</v>
+      </c>
+      <c r="AF7" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>